--- a/2017_ロボコン作業スケジュール.xlsx
+++ b/2017_ロボコン作業スケジュール.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomoki\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9525"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="年間スケジュール表" sheetId="5" r:id="rId1"/>
@@ -13,9 +18,9 @@
     <sheet name="月間スケジュール表" sheetId="4" r:id="rId4"/>
     <sheet name="1日のタイムスケジュール表" sheetId="1" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="162913" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="75">
   <si>
     <t>西暦</t>
     <rPh sb="0" eb="2">
@@ -614,17 +619,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">各難所クリア
-</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ナンショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>報告会</t>
     <rPh sb="0" eb="2">
       <t>ホウコク</t>
@@ -639,11 +633,6 @@
     <rPh sb="2" eb="3">
       <t>ニチ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>13日
-27日　技術教育1 情報展開</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -652,25 +641,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>モデル本格着手（各難所毎）</t>
-    <rPh sb="3" eb="5">
-      <t>ホンカク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>チャクシュ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ナンショ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ゴト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コンセプトシート作成・完了</t>
     <rPh sb="8" eb="10">
       <t>サクセイ</t>
@@ -678,10 +648,6 @@
     <rPh sb="11" eb="13">
       <t>カンリョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>モデル本格着手（各難所毎）</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -714,15 +680,102 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>モデル完了（各難所毎）</t>
+    <rPh sb="3" eb="5">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナンショ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ゴト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンセプトシート作成</t>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>~7日　結合完了</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正、改善作業</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイゼン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13日　ビルド環境構築
+27日　</t>
+    <rPh sb="7" eb="9">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>全員がビルド可能状態
-スタート
-周回
-モード切り替え</t>
-    <rPh sb="22" eb="23">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>カ</t>
+全体の構築決定
+各担当の作業着手</t>
+    <rPh sb="11" eb="13">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウチク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>カクタントウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>チャクシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>~17日　各難所完了</t>
+    <rPh sb="3" eb="4">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナンショ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -730,7 +783,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -2255,7 +2308,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="313">
+  <cellXfs count="314">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2853,218 +2906,306 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="183" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="183" fontId="2" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="183" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="183" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="183" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="2" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3078,12 +3219,6 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3114,86 +3249,52 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="20" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3229,53 +3330,8 @@
     <xf numFmtId="0" fontId="20" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="2" fillId="10" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3356,7 +3412,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5" descr="画面の領域"/>
+        <xdr:cNvPr id="6" name="図 5" descr="画面の領域">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3365,7 +3427,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3403,7 +3465,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10" descr="画面の領域"/>
+        <xdr:cNvPr id="11" name="図 10" descr="画面の領域">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3412,7 +3480,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3447,7 +3515,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11" descr="画面の領域"/>
+        <xdr:cNvPr id="12" name="図 11" descr="画面の領域">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3456,7 +3530,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3491,7 +3565,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3551,7 +3631,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3611,7 +3697,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直線コネクタ 18"/>
+        <xdr:cNvPr id="19" name="直線コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="16" idx="0"/>
           <a:endCxn id="21" idx="1"/>
@@ -3663,7 +3755,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3723,7 +3821,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3783,7 +3887,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="直線コネクタ 25"/>
+        <xdr:cNvPr id="26" name="直線コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="25" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -3834,7 +3944,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="正方形/長方形 33"/>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3894,7 +4010,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="直線コネクタ 34"/>
+        <xdr:cNvPr id="35" name="直線コネクタ 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3943,7 +4065,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="正方形/長方形 36"/>
+        <xdr:cNvPr id="37" name="正方形/長方形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4003,7 +4131,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="正方形/長方形 38"/>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4063,7 +4197,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="直線コネクタ 39"/>
+        <xdr:cNvPr id="40" name="直線コネクタ 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="39" idx="0"/>
           <a:endCxn id="41" idx="1"/>
@@ -4115,7 +4255,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="正方形/長方形 40"/>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4175,7 +4321,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="正方形/長方形 50"/>
+        <xdr:cNvPr id="51" name="正方形/長方形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4235,7 +4387,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="直線コネクタ 51"/>
+        <xdr:cNvPr id="52" name="直線コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="51" idx="0"/>
           <a:endCxn id="55" idx="1"/>
@@ -4287,7 +4445,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="正方形/長方形 54"/>
+        <xdr:cNvPr id="55" name="正方形/長方形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4347,7 +4511,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="正方形/長方形 58"/>
+        <xdr:cNvPr id="59" name="正方形/長方形 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4407,7 +4577,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="60" name="直線コネクタ 59"/>
+        <xdr:cNvPr id="60" name="直線コネクタ 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="59" idx="3"/>
           <a:endCxn id="66" idx="1"/>
@@ -4459,7 +4635,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="正方形/長方形 65"/>
+        <xdr:cNvPr id="66" name="正方形/長方形 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4519,7 +4701,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="正方形/長方形 74"/>
+        <xdr:cNvPr id="75" name="正方形/長方形 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4579,7 +4767,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="76" name="直線コネクタ 75"/>
+        <xdr:cNvPr id="76" name="直線コネクタ 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="75" idx="0"/>
           <a:endCxn id="77" idx="1"/>
@@ -4631,7 +4825,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="正方形/長方形 76"/>
+        <xdr:cNvPr id="77" name="正方形/長方形 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4691,7 +4891,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="正方形/長方形 79"/>
+        <xdr:cNvPr id="80" name="正方形/長方形 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4751,7 +4957,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="85" name="正方形/長方形 84"/>
+        <xdr:cNvPr id="85" name="正方形/長方形 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000055000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4811,7 +5023,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="86" name="直線コネクタ 85"/>
+        <xdr:cNvPr id="86" name="直線コネクタ 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000056000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="80" idx="2"/>
         </xdr:cNvCxnSpPr>
@@ -4862,7 +5080,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="正方形/長方形 92"/>
+        <xdr:cNvPr id="93" name="正方形/長方形 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4922,7 +5146,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="正方形/長方形 94"/>
+        <xdr:cNvPr id="95" name="正方形/長方形 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4982,7 +5212,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="96" name="直線コネクタ 95"/>
+        <xdr:cNvPr id="96" name="直線コネクタ 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000060000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5031,7 +5267,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="99" name="正方形/長方形 98"/>
+        <xdr:cNvPr id="99" name="正方形/長方形 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000063000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5091,7 +5333,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="103" name="正方形/長方形 102"/>
+        <xdr:cNvPr id="103" name="正方形/長方形 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000067000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5151,7 +5399,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="104" name="直線コネクタ 103"/>
+        <xdr:cNvPr id="104" name="直線コネクタ 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000068000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="103" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -5202,7 +5456,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="107" name="正方形/長方形 106"/>
+        <xdr:cNvPr id="107" name="正方形/長方形 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5262,7 +5522,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="108" name="正方形/長方形 107"/>
+        <xdr:cNvPr id="108" name="正方形/長方形 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5322,7 +5588,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="109" name="直線コネクタ 108"/>
+        <xdr:cNvPr id="109" name="直線コネクタ 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="108" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -5378,7 +5650,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線コネクタ 2"/>
+        <xdr:cNvPr id="3" name="直線コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5665,14 +5943,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
@@ -5697,11 +5975,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" ht="25.15" customHeight="1">
-      <c r="B2" s="203">
+      <c r="B2" s="222">
         <v>2016</v>
       </c>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
       <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
@@ -5712,90 +5990,90 @@
     </row>
     <row r="3" spans="2:20" ht="10.15" customHeight="1" thickBot="1"/>
     <row r="4" spans="2:20" ht="19.899999999999999" customHeight="1">
-      <c r="B4" s="198"/>
-      <c r="C4" s="187" t="s">
+      <c r="B4" s="242"/>
+      <c r="C4" s="198" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="190"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="200" t="s">
+      <c r="D4" s="234"/>
+      <c r="E4" s="235"/>
+      <c r="F4" s="244" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="200"/>
-      <c r="H4" s="187" t="s">
+      <c r="G4" s="244"/>
+      <c r="H4" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="185">
+      <c r="I4" s="247">
         <v>4</v>
       </c>
-      <c r="J4" s="181">
+      <c r="J4" s="245">
         <v>5</v>
       </c>
-      <c r="K4" s="181">
+      <c r="K4" s="245">
         <v>6</v>
       </c>
-      <c r="L4" s="181">
+      <c r="L4" s="245">
         <v>7</v>
       </c>
-      <c r="M4" s="181">
+      <c r="M4" s="245">
         <v>8</v>
       </c>
-      <c r="N4" s="181">
+      <c r="N4" s="245">
         <v>9</v>
       </c>
-      <c r="O4" s="181">
+      <c r="O4" s="245">
         <v>10</v>
       </c>
-      <c r="P4" s="181">
+      <c r="P4" s="245">
         <v>11</v>
       </c>
-      <c r="Q4" s="181">
+      <c r="Q4" s="245">
         <v>12</v>
       </c>
-      <c r="R4" s="181">
+      <c r="R4" s="245">
         <v>1</v>
       </c>
-      <c r="S4" s="181">
+      <c r="S4" s="245">
         <v>2</v>
       </c>
-      <c r="T4" s="183">
+      <c r="T4" s="249">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:20" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="B5" s="199"/>
-      <c r="C5" s="188"/>
-      <c r="D5" s="196" t="s">
+      <c r="B5" s="243"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="240" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="197"/>
-      <c r="F5" s="189"/>
-      <c r="G5" s="189"/>
-      <c r="H5" s="188"/>
-      <c r="I5" s="186"/>
-      <c r="J5" s="182"/>
-      <c r="K5" s="182"/>
-      <c r="L5" s="182"/>
-      <c r="M5" s="182"/>
-      <c r="N5" s="182"/>
-      <c r="O5" s="182"/>
-      <c r="P5" s="182"/>
-      <c r="Q5" s="182"/>
-      <c r="R5" s="182"/>
-      <c r="S5" s="182"/>
-      <c r="T5" s="184"/>
+      <c r="E5" s="241"/>
+      <c r="F5" s="233"/>
+      <c r="G5" s="233"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="246"/>
+      <c r="K5" s="246"/>
+      <c r="L5" s="246"/>
+      <c r="M5" s="246"/>
+      <c r="N5" s="246"/>
+      <c r="O5" s="246"/>
+      <c r="P5" s="246"/>
+      <c r="Q5" s="246"/>
+      <c r="R5" s="246"/>
+      <c r="S5" s="246"/>
+      <c r="T5" s="250"/>
     </row>
     <row r="6" spans="2:20" ht="42" customHeight="1">
-      <c r="B6" s="192"/>
-      <c r="C6" s="212" t="s">
+      <c r="B6" s="236"/>
+      <c r="C6" s="200" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="204" t="s">
+      <c r="D6" s="223" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="205"/>
-      <c r="F6" s="205"/>
-      <c r="G6" s="205"/>
+      <c r="E6" s="224"/>
+      <c r="F6" s="224"/>
+      <c r="G6" s="224"/>
       <c r="H6" s="114"/>
       <c r="I6" s="115"/>
       <c r="J6" s="177" t="s">
@@ -5808,7 +6086,7 @@
         <v>52</v>
       </c>
       <c r="M6" s="177" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N6" s="115" t="s">
         <v>53</v>
@@ -5821,18 +6099,18 @@
       <c r="T6" s="116"/>
     </row>
     <row r="7" spans="2:20" ht="55.5" customHeight="1">
-      <c r="B7" s="193"/>
-      <c r="C7" s="213"/>
-      <c r="D7" s="201" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="202"/>
-      <c r="F7" s="202"/>
-      <c r="G7" s="202"/>
+      <c r="B7" s="237"/>
+      <c r="C7" s="201"/>
+      <c r="D7" s="210" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="211"/>
+      <c r="F7" s="211"/>
+      <c r="G7" s="211"/>
       <c r="H7" s="176"/>
       <c r="I7" s="117"/>
       <c r="J7" s="178" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K7" s="178"/>
       <c r="L7" s="178"/>
@@ -5846,18 +6124,18 @@
       <c r="T7" s="118"/>
     </row>
     <row r="8" spans="2:20" ht="55.5" customHeight="1">
-      <c r="B8" s="193"/>
-      <c r="C8" s="213"/>
-      <c r="D8" s="201" t="s">
+      <c r="B8" s="237"/>
+      <c r="C8" s="201"/>
+      <c r="D8" s="210" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="202"/>
-      <c r="F8" s="202"/>
-      <c r="G8" s="202"/>
+      <c r="E8" s="211"/>
+      <c r="F8" s="211"/>
+      <c r="G8" s="211"/>
       <c r="H8" s="176"/>
       <c r="I8" s="117"/>
       <c r="J8" s="178" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K8" s="178" t="s">
         <v>58</v>
@@ -5877,29 +6155,29 @@
       <c r="T8" s="118"/>
     </row>
     <row r="9" spans="2:20" ht="55.5" customHeight="1">
-      <c r="B9" s="194"/>
-      <c r="C9" s="213"/>
-      <c r="D9" s="201" t="s">
+      <c r="B9" s="238"/>
+      <c r="C9" s="201"/>
+      <c r="D9" s="210" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="202"/>
-      <c r="F9" s="202"/>
-      <c r="G9" s="202"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="211"/>
+      <c r="G9" s="211"/>
       <c r="H9" s="180" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I9" s="117"/>
       <c r="J9" s="178" t="s">
         <v>68</v>
       </c>
       <c r="K9" s="178" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L9" s="178" t="s">
         <v>69</v>
       </c>
       <c r="M9" s="178" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N9" s="117"/>
       <c r="O9" s="117"/>
@@ -5910,24 +6188,28 @@
       <c r="T9" s="118"/>
     </row>
     <row r="10" spans="2:20" ht="67.5" customHeight="1" thickBot="1">
-      <c r="B10" s="195"/>
-      <c r="C10" s="214"/>
-      <c r="D10" s="206" t="s">
+      <c r="B10" s="239"/>
+      <c r="C10" s="202"/>
+      <c r="D10" s="225" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="207"/>
-      <c r="F10" s="207"/>
-      <c r="G10" s="208"/>
+      <c r="E10" s="226"/>
+      <c r="F10" s="226"/>
+      <c r="G10" s="227"/>
       <c r="H10" s="119"/>
       <c r="I10" s="120"/>
       <c r="J10" s="179" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K10" s="179" t="s">
-        <v>63</v>
-      </c>
-      <c r="L10" s="120"/>
-      <c r="M10" s="120"/>
+        <v>74</v>
+      </c>
+      <c r="L10" s="313" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10" s="120" t="s">
+        <v>71</v>
+      </c>
       <c r="N10" s="120"/>
       <c r="O10" s="120"/>
       <c r="P10" s="120"/>
@@ -5937,16 +6219,16 @@
       <c r="T10" s="121"/>
     </row>
     <row r="11" spans="2:20" ht="25.15" hidden="1" customHeight="1">
-      <c r="B11" s="209" t="s">
+      <c r="B11" s="228" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="212" t="s">
+      <c r="C11" s="200" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="247"/>
-      <c r="E11" s="248"/>
-      <c r="F11" s="248"/>
-      <c r="G11" s="248"/>
+      <c r="D11" s="231"/>
+      <c r="E11" s="232"/>
+      <c r="F11" s="232"/>
+      <c r="G11" s="232"/>
       <c r="H11" s="122"/>
       <c r="I11" s="123"/>
       <c r="J11" s="123"/>
@@ -5962,12 +6244,12 @@
       <c r="T11" s="124"/>
     </row>
     <row r="12" spans="2:20" ht="25.15" hidden="1" customHeight="1">
-      <c r="B12" s="210"/>
-      <c r="C12" s="213"/>
-      <c r="D12" s="245"/>
-      <c r="E12" s="246"/>
-      <c r="F12" s="246"/>
-      <c r="G12" s="246"/>
+      <c r="B12" s="229"/>
+      <c r="C12" s="201"/>
+      <c r="D12" s="187"/>
+      <c r="E12" s="188"/>
+      <c r="F12" s="188"/>
+      <c r="G12" s="188"/>
       <c r="H12" s="125"/>
       <c r="I12" s="126"/>
       <c r="J12" s="126"/>
@@ -5983,12 +6265,12 @@
       <c r="T12" s="127"/>
     </row>
     <row r="13" spans="2:20" ht="25.15" hidden="1" customHeight="1">
-      <c r="B13" s="210"/>
-      <c r="C13" s="213"/>
-      <c r="D13" s="245"/>
-      <c r="E13" s="246"/>
-      <c r="F13" s="246"/>
-      <c r="G13" s="246"/>
+      <c r="B13" s="229"/>
+      <c r="C13" s="201"/>
+      <c r="D13" s="187"/>
+      <c r="E13" s="188"/>
+      <c r="F13" s="188"/>
+      <c r="G13" s="188"/>
       <c r="H13" s="125"/>
       <c r="I13" s="126"/>
       <c r="J13" s="126"/>
@@ -6004,12 +6286,12 @@
       <c r="T13" s="127"/>
     </row>
     <row r="14" spans="2:20" ht="25.15" hidden="1" customHeight="1" thickBot="1">
-      <c r="B14" s="211"/>
-      <c r="C14" s="214"/>
-      <c r="D14" s="235"/>
-      <c r="E14" s="236"/>
-      <c r="F14" s="236"/>
-      <c r="G14" s="236"/>
+      <c r="B14" s="230"/>
+      <c r="C14" s="202"/>
+      <c r="D14" s="218"/>
+      <c r="E14" s="219"/>
+      <c r="F14" s="219"/>
+      <c r="G14" s="219"/>
       <c r="H14" s="128"/>
       <c r="I14" s="129"/>
       <c r="J14" s="129"/>
@@ -6025,16 +6307,16 @@
       <c r="T14" s="130"/>
     </row>
     <row r="15" spans="2:20" ht="25.15" hidden="1" customHeight="1">
-      <c r="B15" s="222" t="s">
+      <c r="B15" s="203" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="225" t="s">
+      <c r="C15" s="206" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="215"/>
-      <c r="E15" s="216"/>
-      <c r="F15" s="216"/>
-      <c r="G15" s="216"/>
+      <c r="D15" s="191"/>
+      <c r="E15" s="192"/>
+      <c r="F15" s="192"/>
+      <c r="G15" s="192"/>
       <c r="H15" s="131"/>
       <c r="I15" s="132"/>
       <c r="J15" s="132"/>
@@ -6050,12 +6332,12 @@
       <c r="T15" s="133"/>
     </row>
     <row r="16" spans="2:20" ht="25.15" hidden="1" customHeight="1">
-      <c r="B16" s="223"/>
-      <c r="C16" s="220"/>
-      <c r="D16" s="249"/>
-      <c r="E16" s="250"/>
-      <c r="F16" s="250"/>
-      <c r="G16" s="250"/>
+      <c r="B16" s="204"/>
+      <c r="C16" s="196"/>
+      <c r="D16" s="189"/>
+      <c r="E16" s="190"/>
+      <c r="F16" s="190"/>
+      <c r="G16" s="190"/>
       <c r="H16" s="134"/>
       <c r="I16" s="135"/>
       <c r="J16" s="135"/>
@@ -6071,12 +6353,12 @@
       <c r="T16" s="136"/>
     </row>
     <row r="17" spans="2:20" ht="25.15" hidden="1" customHeight="1">
-      <c r="B17" s="223"/>
-      <c r="C17" s="220"/>
-      <c r="D17" s="249"/>
-      <c r="E17" s="250"/>
-      <c r="F17" s="250"/>
-      <c r="G17" s="250"/>
+      <c r="B17" s="204"/>
+      <c r="C17" s="196"/>
+      <c r="D17" s="189"/>
+      <c r="E17" s="190"/>
+      <c r="F17" s="190"/>
+      <c r="G17" s="190"/>
       <c r="H17" s="134"/>
       <c r="I17" s="135"/>
       <c r="J17" s="135"/>
@@ -6092,12 +6374,12 @@
       <c r="T17" s="136"/>
     </row>
     <row r="18" spans="2:20" ht="25.15" hidden="1" customHeight="1" thickBot="1">
-      <c r="B18" s="224"/>
-      <c r="C18" s="221"/>
-      <c r="D18" s="237"/>
-      <c r="E18" s="238"/>
-      <c r="F18" s="238"/>
-      <c r="G18" s="238"/>
+      <c r="B18" s="205"/>
+      <c r="C18" s="197"/>
+      <c r="D18" s="220"/>
+      <c r="E18" s="221"/>
+      <c r="F18" s="221"/>
+      <c r="G18" s="221"/>
       <c r="H18" s="137"/>
       <c r="I18" s="138"/>
       <c r="J18" s="138"/>
@@ -6113,16 +6395,16 @@
       <c r="T18" s="139"/>
     </row>
     <row r="19" spans="2:20" ht="25.15" hidden="1" customHeight="1">
-      <c r="B19" s="226" t="s">
+      <c r="B19" s="207" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="225" t="s">
+      <c r="C19" s="206" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="243"/>
-      <c r="E19" s="244"/>
-      <c r="F19" s="244"/>
-      <c r="G19" s="244"/>
+      <c r="D19" s="185"/>
+      <c r="E19" s="186"/>
+      <c r="F19" s="186"/>
+      <c r="G19" s="186"/>
       <c r="H19" s="140"/>
       <c r="I19" s="141"/>
       <c r="J19" s="141"/>
@@ -6138,12 +6420,12 @@
       <c r="T19" s="142"/>
     </row>
     <row r="20" spans="2:20" ht="25.15" hidden="1" customHeight="1">
-      <c r="B20" s="227"/>
-      <c r="C20" s="220"/>
-      <c r="D20" s="241"/>
-      <c r="E20" s="242"/>
-      <c r="F20" s="242"/>
-      <c r="G20" s="242"/>
+      <c r="B20" s="208"/>
+      <c r="C20" s="196"/>
+      <c r="D20" s="183"/>
+      <c r="E20" s="184"/>
+      <c r="F20" s="184"/>
+      <c r="G20" s="184"/>
       <c r="H20" s="143"/>
       <c r="I20" s="144"/>
       <c r="J20" s="144"/>
@@ -6159,12 +6441,12 @@
       <c r="T20" s="145"/>
     </row>
     <row r="21" spans="2:20" ht="25.15" hidden="1" customHeight="1">
-      <c r="B21" s="227"/>
-      <c r="C21" s="220"/>
-      <c r="D21" s="241"/>
-      <c r="E21" s="242"/>
-      <c r="F21" s="242"/>
-      <c r="G21" s="242"/>
+      <c r="B21" s="208"/>
+      <c r="C21" s="196"/>
+      <c r="D21" s="183"/>
+      <c r="E21" s="184"/>
+      <c r="F21" s="184"/>
+      <c r="G21" s="184"/>
       <c r="H21" s="143"/>
       <c r="I21" s="144"/>
       <c r="J21" s="144"/>
@@ -6180,12 +6462,12 @@
       <c r="T21" s="145"/>
     </row>
     <row r="22" spans="2:20" ht="25.15" hidden="1" customHeight="1" thickBot="1">
-      <c r="B22" s="228"/>
-      <c r="C22" s="221"/>
-      <c r="D22" s="239"/>
-      <c r="E22" s="240"/>
-      <c r="F22" s="240"/>
-      <c r="G22" s="240"/>
+      <c r="B22" s="209"/>
+      <c r="C22" s="197"/>
+      <c r="D22" s="181"/>
+      <c r="E22" s="182"/>
+      <c r="F22" s="182"/>
+      <c r="G22" s="182"/>
       <c r="H22" s="146"/>
       <c r="I22" s="147"/>
       <c r="J22" s="147"/>
@@ -6201,16 +6483,16 @@
       <c r="T22" s="148"/>
     </row>
     <row r="23" spans="2:20" ht="25.15" hidden="1" customHeight="1">
-      <c r="B23" s="217" t="s">
+      <c r="B23" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="220" t="s">
+      <c r="C23" s="196" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="233"/>
-      <c r="E23" s="234"/>
-      <c r="F23" s="234"/>
-      <c r="G23" s="234"/>
+      <c r="D23" s="216"/>
+      <c r="E23" s="217"/>
+      <c r="F23" s="217"/>
+      <c r="G23" s="217"/>
       <c r="H23" s="149"/>
       <c r="I23" s="150"/>
       <c r="J23" s="150"/>
@@ -6226,12 +6508,12 @@
       <c r="T23" s="151"/>
     </row>
     <row r="24" spans="2:20" ht="25.15" hidden="1" customHeight="1">
-      <c r="B24" s="218"/>
-      <c r="C24" s="220"/>
-      <c r="D24" s="231"/>
-      <c r="E24" s="232"/>
-      <c r="F24" s="232"/>
-      <c r="G24" s="232"/>
+      <c r="B24" s="194"/>
+      <c r="C24" s="196"/>
+      <c r="D24" s="214"/>
+      <c r="E24" s="215"/>
+      <c r="F24" s="215"/>
+      <c r="G24" s="215"/>
       <c r="H24" s="152"/>
       <c r="I24" s="153"/>
       <c r="J24" s="153"/>
@@ -6247,12 +6529,12 @@
       <c r="T24" s="154"/>
     </row>
     <row r="25" spans="2:20" ht="25.15" hidden="1" customHeight="1">
-      <c r="B25" s="218"/>
-      <c r="C25" s="220"/>
-      <c r="D25" s="231"/>
-      <c r="E25" s="232"/>
-      <c r="F25" s="232"/>
-      <c r="G25" s="232"/>
+      <c r="B25" s="194"/>
+      <c r="C25" s="196"/>
+      <c r="D25" s="214"/>
+      <c r="E25" s="215"/>
+      <c r="F25" s="215"/>
+      <c r="G25" s="215"/>
       <c r="H25" s="152"/>
       <c r="I25" s="153"/>
       <c r="J25" s="153"/>
@@ -6268,12 +6550,12 @@
       <c r="T25" s="154"/>
     </row>
     <row r="26" spans="2:20" ht="25.15" hidden="1" customHeight="1" thickBot="1">
-      <c r="B26" s="219"/>
-      <c r="C26" s="221"/>
-      <c r="D26" s="229"/>
-      <c r="E26" s="230"/>
-      <c r="F26" s="230"/>
-      <c r="G26" s="230"/>
+      <c r="B26" s="195"/>
+      <c r="C26" s="197"/>
+      <c r="D26" s="212"/>
+      <c r="E26" s="213"/>
+      <c r="F26" s="213"/>
+      <c r="G26" s="213"/>
       <c r="H26" s="155"/>
       <c r="I26" s="155"/>
       <c r="J26" s="155"/>
@@ -6291,6 +6573,49 @@
     <row r="27" spans="2:20" ht="25.15" customHeight="1"/>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="D21:G21"/>
     <mergeCell ref="D20:G20"/>
@@ -6299,49 +6624,6 @@
     <mergeCell ref="D17:G17"/>
     <mergeCell ref="D16:G16"/>
     <mergeCell ref="D15:G15"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="P4:P5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6350,7 +6632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6358,6 +6640,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6365,7 +6650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
@@ -6549,7 +6834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:ET97"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
@@ -6571,15 +6856,15 @@
   <sheetData>
     <row r="1" spans="2:150" ht="15" customHeight="1"/>
     <row r="2" spans="2:150" ht="16.5" thickBot="1">
-      <c r="B2" s="252" t="s">
+      <c r="B2" s="275" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="252"/>
-      <c r="D2" s="262" t="s">
+      <c r="C2" s="275"/>
+      <c r="D2" s="283" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="263"/>
-      <c r="F2" s="264"/>
+      <c r="E2" s="284"/>
+      <c r="F2" s="285"/>
       <c r="G2" s="8"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -6590,10 +6875,10 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="2:150" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="B3" s="259">
+      <c r="B3" s="280">
         <v>2016</v>
       </c>
-      <c r="C3" s="260"/>
+      <c r="C3" s="281"/>
       <c r="D3" s="72">
         <v>4</v>
       </c>
@@ -6630,14 +6915,14 @@
       <c r="M4" s="9"/>
     </row>
     <row r="5" spans="2:150" ht="19.899999999999999" customHeight="1">
-      <c r="B5" s="261" t="s">
+      <c r="B5" s="282" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="261"/>
-      <c r="D5" s="261"/>
-      <c r="E5" s="261"/>
-      <c r="F5" s="261"/>
-      <c r="G5" s="261"/>
+      <c r="C5" s="282"/>
+      <c r="D5" s="282"/>
+      <c r="E5" s="282"/>
+      <c r="F5" s="282"/>
+      <c r="G5" s="282"/>
       <c r="H5" s="65">
         <f>K3</f>
         <v>42461</v>
@@ -6685,484 +6970,484 @@
       <c r="L6" s="16"/>
     </row>
     <row r="7" spans="2:150" ht="19.899999999999999" customHeight="1">
-      <c r="B7" s="280"/>
-      <c r="C7" s="281"/>
-      <c r="D7" s="281"/>
-      <c r="E7" s="283" t="s">
+      <c r="B7" s="268"/>
+      <c r="C7" s="269"/>
+      <c r="D7" s="269"/>
+      <c r="E7" s="271" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="283"/>
+      <c r="F7" s="271"/>
       <c r="G7" s="17"/>
-      <c r="H7" s="257">
+      <c r="H7" s="278">
         <f>H5</f>
         <v>42461</v>
       </c>
-      <c r="I7" s="255">
+      <c r="I7" s="252">
         <f>H5+1</f>
         <v>42462</v>
       </c>
-      <c r="J7" s="255">
+      <c r="J7" s="252">
         <f t="shared" ref="J7:AI7" si="0">I7+1</f>
         <v>42463</v>
       </c>
-      <c r="K7" s="255">
+      <c r="K7" s="252">
         <f t="shared" si="0"/>
         <v>42464</v>
       </c>
-      <c r="L7" s="255">
+      <c r="L7" s="252">
         <f t="shared" si="0"/>
         <v>42465</v>
       </c>
-      <c r="M7" s="255">
+      <c r="M7" s="252">
         <f t="shared" si="0"/>
         <v>42466</v>
       </c>
-      <c r="N7" s="255">
+      <c r="N7" s="252">
         <f t="shared" si="0"/>
         <v>42467</v>
       </c>
-      <c r="O7" s="255">
+      <c r="O7" s="252">
         <f t="shared" si="0"/>
         <v>42468</v>
       </c>
-      <c r="P7" s="255">
+      <c r="P7" s="252">
         <f t="shared" si="0"/>
         <v>42469</v>
       </c>
-      <c r="Q7" s="255">
+      <c r="Q7" s="252">
         <f t="shared" si="0"/>
         <v>42470</v>
       </c>
-      <c r="R7" s="255">
+      <c r="R7" s="252">
         <f t="shared" si="0"/>
         <v>42471</v>
       </c>
-      <c r="S7" s="255">
+      <c r="S7" s="252">
         <f t="shared" si="0"/>
         <v>42472</v>
       </c>
-      <c r="T7" s="255">
+      <c r="T7" s="252">
         <f t="shared" si="0"/>
         <v>42473</v>
       </c>
-      <c r="U7" s="255">
+      <c r="U7" s="252">
         <f t="shared" si="0"/>
         <v>42474</v>
       </c>
-      <c r="V7" s="255">
+      <c r="V7" s="252">
         <f t="shared" si="0"/>
         <v>42475</v>
       </c>
-      <c r="W7" s="255">
+      <c r="W7" s="252">
         <f t="shared" si="0"/>
         <v>42476</v>
       </c>
-      <c r="X7" s="255">
+      <c r="X7" s="252">
         <f t="shared" si="0"/>
         <v>42477</v>
       </c>
-      <c r="Y7" s="255">
+      <c r="Y7" s="252">
         <f t="shared" si="0"/>
         <v>42478</v>
       </c>
-      <c r="Z7" s="255">
+      <c r="Z7" s="252">
         <f t="shared" si="0"/>
         <v>42479</v>
       </c>
-      <c r="AA7" s="255">
+      <c r="AA7" s="252">
         <f t="shared" si="0"/>
         <v>42480</v>
       </c>
-      <c r="AB7" s="255">
+      <c r="AB7" s="252">
         <f t="shared" si="0"/>
         <v>42481</v>
       </c>
-      <c r="AC7" s="255">
+      <c r="AC7" s="252">
         <f t="shared" si="0"/>
         <v>42482</v>
       </c>
-      <c r="AD7" s="255">
+      <c r="AD7" s="252">
         <f t="shared" si="0"/>
         <v>42483</v>
       </c>
-      <c r="AE7" s="255">
+      <c r="AE7" s="252">
         <f t="shared" si="0"/>
         <v>42484</v>
       </c>
-      <c r="AF7" s="255">
+      <c r="AF7" s="252">
         <f t="shared" si="0"/>
         <v>42485</v>
       </c>
-      <c r="AG7" s="255">
+      <c r="AG7" s="252">
         <f t="shared" si="0"/>
         <v>42486</v>
       </c>
-      <c r="AH7" s="255">
+      <c r="AH7" s="252">
         <f t="shared" si="0"/>
         <v>42487</v>
       </c>
-      <c r="AI7" s="255">
+      <c r="AI7" s="252">
         <f t="shared" si="0"/>
         <v>42488</v>
       </c>
-      <c r="AJ7" s="255">
+      <c r="AJ7" s="252">
         <f t="shared" ref="AJ7" si="1">AI7+1</f>
         <v>42489</v>
       </c>
-      <c r="AK7" s="255">
+      <c r="AK7" s="252">
         <f t="shared" ref="AK7" si="2">AJ7+1</f>
         <v>42490</v>
       </c>
-      <c r="AL7" s="255">
+      <c r="AL7" s="252">
         <f t="shared" ref="AL7" si="3">AK7+1</f>
         <v>42491</v>
       </c>
-      <c r="AM7" s="255">
+      <c r="AM7" s="252">
         <f t="shared" ref="AM7" si="4">AL7+1</f>
         <v>42492</v>
       </c>
-      <c r="AN7" s="255">
+      <c r="AN7" s="252">
         <f t="shared" ref="AN7" si="5">AM7+1</f>
         <v>42493</v>
       </c>
-      <c r="AO7" s="255">
+      <c r="AO7" s="252">
         <f t="shared" ref="AO7" si="6">AN7+1</f>
         <v>42494</v>
       </c>
-      <c r="AP7" s="255">
+      <c r="AP7" s="252">
         <f t="shared" ref="AP7" si="7">AO7+1</f>
         <v>42495</v>
       </c>
-      <c r="AQ7" s="255">
+      <c r="AQ7" s="252">
         <f t="shared" ref="AQ7" si="8">AP7+1</f>
         <v>42496</v>
       </c>
-      <c r="AR7" s="255">
+      <c r="AR7" s="252">
         <f t="shared" ref="AR7" si="9">AQ7+1</f>
         <v>42497</v>
       </c>
-      <c r="AS7" s="255">
+      <c r="AS7" s="252">
         <f t="shared" ref="AS7" si="10">AR7+1</f>
         <v>42498</v>
       </c>
-      <c r="AT7" s="255">
+      <c r="AT7" s="252">
         <f t="shared" ref="AT7" si="11">AS7+1</f>
         <v>42499</v>
       </c>
-      <c r="AU7" s="255">
+      <c r="AU7" s="252">
         <f t="shared" ref="AU7" si="12">AT7+1</f>
         <v>42500</v>
       </c>
-      <c r="AV7" s="255">
+      <c r="AV7" s="252">
         <f t="shared" ref="AV7" si="13">AU7+1</f>
         <v>42501</v>
       </c>
-      <c r="AW7" s="255">
+      <c r="AW7" s="252">
         <f t="shared" ref="AW7" si="14">AV7+1</f>
         <v>42502</v>
       </c>
-      <c r="AX7" s="255">
+      <c r="AX7" s="252">
         <f t="shared" ref="AX7" si="15">AW7+1</f>
         <v>42503</v>
       </c>
-      <c r="AY7" s="255">
+      <c r="AY7" s="252">
         <f t="shared" ref="AY7" si="16">AX7+1</f>
         <v>42504</v>
       </c>
-      <c r="AZ7" s="255">
+      <c r="AZ7" s="252">
         <f t="shared" ref="AZ7" si="17">AY7+1</f>
         <v>42505</v>
       </c>
-      <c r="BA7" s="255">
+      <c r="BA7" s="252">
         <f t="shared" ref="BA7" si="18">AZ7+1</f>
         <v>42506</v>
       </c>
-      <c r="BB7" s="255">
+      <c r="BB7" s="252">
         <f t="shared" ref="BB7" si="19">BA7+1</f>
         <v>42507</v>
       </c>
-      <c r="BC7" s="255">
+      <c r="BC7" s="252">
         <f t="shared" ref="BC7" si="20">BB7+1</f>
         <v>42508</v>
       </c>
-      <c r="BD7" s="255">
+      <c r="BD7" s="252">
         <f t="shared" ref="BD7" si="21">BC7+1</f>
         <v>42509</v>
       </c>
-      <c r="BE7" s="255">
+      <c r="BE7" s="252">
         <f t="shared" ref="BE7" si="22">BD7+1</f>
         <v>42510</v>
       </c>
-      <c r="BF7" s="255">
+      <c r="BF7" s="252">
         <f t="shared" ref="BF7" si="23">BE7+1</f>
         <v>42511</v>
       </c>
-      <c r="BG7" s="255">
+      <c r="BG7" s="252">
         <f t="shared" ref="BG7" si="24">BF7+1</f>
         <v>42512</v>
       </c>
-      <c r="BH7" s="255">
+      <c r="BH7" s="252">
         <f t="shared" ref="BH7" si="25">BG7+1</f>
         <v>42513</v>
       </c>
-      <c r="BI7" s="255">
+      <c r="BI7" s="252">
         <f t="shared" ref="BI7" si="26">BH7+1</f>
         <v>42514</v>
       </c>
-      <c r="BJ7" s="255">
+      <c r="BJ7" s="252">
         <f t="shared" ref="BJ7" si="27">BI7+1</f>
         <v>42515</v>
       </c>
-      <c r="BK7" s="255">
+      <c r="BK7" s="252">
         <f t="shared" ref="BK7" si="28">BJ7+1</f>
         <v>42516</v>
       </c>
-      <c r="BL7" s="255">
+      <c r="BL7" s="252">
         <f t="shared" ref="BL7" si="29">BK7+1</f>
         <v>42517</v>
       </c>
-      <c r="BM7" s="255">
+      <c r="BM7" s="252">
         <f t="shared" ref="BM7" si="30">BL7+1</f>
         <v>42518</v>
       </c>
-      <c r="BN7" s="255">
+      <c r="BN7" s="252">
         <f t="shared" ref="BN7" si="31">BM7+1</f>
         <v>42519</v>
       </c>
-      <c r="BO7" s="255">
+      <c r="BO7" s="252">
         <f t="shared" ref="BO7" si="32">BN7+1</f>
         <v>42520</v>
       </c>
-      <c r="BP7" s="255">
+      <c r="BP7" s="252">
         <f t="shared" ref="BP7" si="33">BO7+1</f>
         <v>42521</v>
       </c>
-      <c r="BQ7" s="255">
+      <c r="BQ7" s="252">
         <f t="shared" ref="BQ7" si="34">BP7+1</f>
         <v>42522</v>
       </c>
-      <c r="BR7" s="255">
+      <c r="BR7" s="252">
         <f t="shared" ref="BR7" si="35">BQ7+1</f>
         <v>42523</v>
       </c>
-      <c r="BS7" s="255">
+      <c r="BS7" s="252">
         <f t="shared" ref="BS7" si="36">BR7+1</f>
         <v>42524</v>
       </c>
-      <c r="BT7" s="255">
+      <c r="BT7" s="252">
         <f t="shared" ref="BT7" si="37">BS7+1</f>
         <v>42525</v>
       </c>
-      <c r="BU7" s="255">
+      <c r="BU7" s="252">
         <f t="shared" ref="BU7" si="38">BT7+1</f>
         <v>42526</v>
       </c>
-      <c r="BV7" s="255">
+      <c r="BV7" s="252">
         <f t="shared" ref="BV7" si="39">BU7+1</f>
         <v>42527</v>
       </c>
-      <c r="BW7" s="255">
+      <c r="BW7" s="252">
         <f t="shared" ref="BW7" si="40">BV7+1</f>
         <v>42528</v>
       </c>
-      <c r="BX7" s="255">
+      <c r="BX7" s="252">
         <f t="shared" ref="BX7" si="41">BW7+1</f>
         <v>42529</v>
       </c>
-      <c r="BY7" s="255">
+      <c r="BY7" s="252">
         <f t="shared" ref="BY7" si="42">BX7+1</f>
         <v>42530</v>
       </c>
-      <c r="BZ7" s="255">
+      <c r="BZ7" s="252">
         <f t="shared" ref="BZ7" si="43">BY7+1</f>
         <v>42531</v>
       </c>
-      <c r="CA7" s="255">
+      <c r="CA7" s="252">
         <f t="shared" ref="CA7" si="44">BZ7+1</f>
         <v>42532</v>
       </c>
-      <c r="CB7" s="255">
+      <c r="CB7" s="252">
         <f t="shared" ref="CB7" si="45">CA7+1</f>
         <v>42533</v>
       </c>
-      <c r="CC7" s="255">
+      <c r="CC7" s="252">
         <f t="shared" ref="CC7" si="46">CB7+1</f>
         <v>42534</v>
       </c>
-      <c r="CD7" s="255">
+      <c r="CD7" s="252">
         <f t="shared" ref="CD7" si="47">CC7+1</f>
         <v>42535</v>
       </c>
-      <c r="CE7" s="255">
+      <c r="CE7" s="252">
         <f t="shared" ref="CE7" si="48">CD7+1</f>
         <v>42536</v>
       </c>
-      <c r="CF7" s="255">
+      <c r="CF7" s="252">
         <f t="shared" ref="CF7" si="49">CE7+1</f>
         <v>42537</v>
       </c>
-      <c r="CG7" s="255">
+      <c r="CG7" s="252">
         <f t="shared" ref="CG7" si="50">CF7+1</f>
         <v>42538</v>
       </c>
-      <c r="CH7" s="255">
+      <c r="CH7" s="252">
         <f t="shared" ref="CH7" si="51">CG7+1</f>
         <v>42539</v>
       </c>
-      <c r="CI7" s="255">
+      <c r="CI7" s="252">
         <f t="shared" ref="CI7" si="52">CH7+1</f>
         <v>42540</v>
       </c>
-      <c r="CJ7" s="255">
+      <c r="CJ7" s="252">
         <f t="shared" ref="CJ7" si="53">CI7+1</f>
         <v>42541</v>
       </c>
-      <c r="CK7" s="255">
+      <c r="CK7" s="252">
         <f t="shared" ref="CK7" si="54">CJ7+1</f>
         <v>42542</v>
       </c>
-      <c r="CL7" s="255">
+      <c r="CL7" s="252">
         <f t="shared" ref="CL7" si="55">CK7+1</f>
         <v>42543</v>
       </c>
-      <c r="CM7" s="255">
+      <c r="CM7" s="252">
         <f t="shared" ref="CM7" si="56">CL7+1</f>
         <v>42544</v>
       </c>
-      <c r="CN7" s="255">
+      <c r="CN7" s="252">
         <f t="shared" ref="CN7" si="57">CM7+1</f>
         <v>42545</v>
       </c>
-      <c r="CO7" s="255">
+      <c r="CO7" s="252">
         <f t="shared" ref="CO7" si="58">CN7+1</f>
         <v>42546</v>
       </c>
-      <c r="CP7" s="255">
+      <c r="CP7" s="252">
         <f t="shared" ref="CP7" si="59">CO7+1</f>
         <v>42547</v>
       </c>
-      <c r="CQ7" s="255">
+      <c r="CQ7" s="252">
         <f t="shared" ref="CQ7" si="60">CP7+1</f>
         <v>42548</v>
       </c>
-      <c r="CR7" s="255">
+      <c r="CR7" s="252">
         <f t="shared" ref="CR7" si="61">CQ7+1</f>
         <v>42549</v>
       </c>
-      <c r="CS7" s="255">
+      <c r="CS7" s="252">
         <f t="shared" ref="CS7" si="62">CR7+1</f>
         <v>42550</v>
       </c>
-      <c r="CT7" s="255">
+      <c r="CT7" s="252">
         <f>IF(DAY(CS7+1)&lt;&gt;30,"",CS7+1)</f>
         <v>42551</v>
       </c>
-      <c r="CU7" s="284" t="str">
+      <c r="CU7" s="254" t="str">
         <f>IF(DAY(CS7+2)&lt;&gt;31,"",CS7+2)</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="2:150" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="B8" s="18"/>
-      <c r="C8" s="282" t="s">
+      <c r="C8" s="270" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="282"/>
-      <c r="E8" s="279"/>
-      <c r="F8" s="279"/>
-      <c r="G8" s="279"/>
-      <c r="H8" s="258"/>
-      <c r="I8" s="256"/>
-      <c r="J8" s="256"/>
-      <c r="K8" s="256"/>
-      <c r="L8" s="256"/>
-      <c r="M8" s="256"/>
-      <c r="N8" s="256"/>
-      <c r="O8" s="256"/>
-      <c r="P8" s="256"/>
-      <c r="Q8" s="256"/>
-      <c r="R8" s="256"/>
-      <c r="S8" s="256"/>
-      <c r="T8" s="256"/>
-      <c r="U8" s="256"/>
-      <c r="V8" s="256"/>
-      <c r="W8" s="256"/>
-      <c r="X8" s="256"/>
-      <c r="Y8" s="256"/>
-      <c r="Z8" s="256"/>
-      <c r="AA8" s="256"/>
-      <c r="AB8" s="256"/>
-      <c r="AC8" s="256"/>
-      <c r="AD8" s="256"/>
-      <c r="AE8" s="256"/>
-      <c r="AF8" s="256"/>
-      <c r="AG8" s="256"/>
-      <c r="AH8" s="256"/>
-      <c r="AI8" s="256"/>
-      <c r="AJ8" s="256"/>
-      <c r="AK8" s="256"/>
-      <c r="AL8" s="256"/>
-      <c r="AM8" s="256"/>
-      <c r="AN8" s="256"/>
-      <c r="AO8" s="256"/>
-      <c r="AP8" s="256"/>
-      <c r="AQ8" s="256"/>
-      <c r="AR8" s="256"/>
-      <c r="AS8" s="256"/>
-      <c r="AT8" s="256"/>
-      <c r="AU8" s="256"/>
-      <c r="AV8" s="256"/>
-      <c r="AW8" s="256"/>
-      <c r="AX8" s="256"/>
-      <c r="AY8" s="256"/>
-      <c r="AZ8" s="256"/>
-      <c r="BA8" s="256"/>
-      <c r="BB8" s="256"/>
-      <c r="BC8" s="256"/>
-      <c r="BD8" s="256"/>
-      <c r="BE8" s="256"/>
-      <c r="BF8" s="256"/>
-      <c r="BG8" s="256"/>
-      <c r="BH8" s="256"/>
-      <c r="BI8" s="256"/>
-      <c r="BJ8" s="256"/>
-      <c r="BK8" s="256"/>
-      <c r="BL8" s="256"/>
-      <c r="BM8" s="256"/>
-      <c r="BN8" s="256"/>
-      <c r="BO8" s="256"/>
-      <c r="BP8" s="256"/>
-      <c r="BQ8" s="256"/>
-      <c r="BR8" s="256"/>
-      <c r="BS8" s="256"/>
-      <c r="BT8" s="256"/>
-      <c r="BU8" s="256"/>
-      <c r="BV8" s="256"/>
-      <c r="BW8" s="256"/>
-      <c r="BX8" s="256"/>
-      <c r="BY8" s="256"/>
-      <c r="BZ8" s="256"/>
-      <c r="CA8" s="256"/>
-      <c r="CB8" s="256"/>
-      <c r="CC8" s="256"/>
-      <c r="CD8" s="256"/>
-      <c r="CE8" s="256"/>
-      <c r="CF8" s="256"/>
-      <c r="CG8" s="256"/>
-      <c r="CH8" s="256"/>
-      <c r="CI8" s="256"/>
-      <c r="CJ8" s="256"/>
-      <c r="CK8" s="256"/>
-      <c r="CL8" s="256"/>
-      <c r="CM8" s="256"/>
-      <c r="CN8" s="256"/>
-      <c r="CO8" s="256"/>
-      <c r="CP8" s="256"/>
-      <c r="CQ8" s="256"/>
-      <c r="CR8" s="256"/>
-      <c r="CS8" s="256"/>
-      <c r="CT8" s="256"/>
-      <c r="CU8" s="285"/>
+      <c r="D8" s="270"/>
+      <c r="E8" s="267"/>
+      <c r="F8" s="267"/>
+      <c r="G8" s="267"/>
+      <c r="H8" s="279"/>
+      <c r="I8" s="253"/>
+      <c r="J8" s="253"/>
+      <c r="K8" s="253"/>
+      <c r="L8" s="253"/>
+      <c r="M8" s="253"/>
+      <c r="N8" s="253"/>
+      <c r="O8" s="253"/>
+      <c r="P8" s="253"/>
+      <c r="Q8" s="253"/>
+      <c r="R8" s="253"/>
+      <c r="S8" s="253"/>
+      <c r="T8" s="253"/>
+      <c r="U8" s="253"/>
+      <c r="V8" s="253"/>
+      <c r="W8" s="253"/>
+      <c r="X8" s="253"/>
+      <c r="Y8" s="253"/>
+      <c r="Z8" s="253"/>
+      <c r="AA8" s="253"/>
+      <c r="AB8" s="253"/>
+      <c r="AC8" s="253"/>
+      <c r="AD8" s="253"/>
+      <c r="AE8" s="253"/>
+      <c r="AF8" s="253"/>
+      <c r="AG8" s="253"/>
+      <c r="AH8" s="253"/>
+      <c r="AI8" s="253"/>
+      <c r="AJ8" s="253"/>
+      <c r="AK8" s="253"/>
+      <c r="AL8" s="253"/>
+      <c r="AM8" s="253"/>
+      <c r="AN8" s="253"/>
+      <c r="AO8" s="253"/>
+      <c r="AP8" s="253"/>
+      <c r="AQ8" s="253"/>
+      <c r="AR8" s="253"/>
+      <c r="AS8" s="253"/>
+      <c r="AT8" s="253"/>
+      <c r="AU8" s="253"/>
+      <c r="AV8" s="253"/>
+      <c r="AW8" s="253"/>
+      <c r="AX8" s="253"/>
+      <c r="AY8" s="253"/>
+      <c r="AZ8" s="253"/>
+      <c r="BA8" s="253"/>
+      <c r="BB8" s="253"/>
+      <c r="BC8" s="253"/>
+      <c r="BD8" s="253"/>
+      <c r="BE8" s="253"/>
+      <c r="BF8" s="253"/>
+      <c r="BG8" s="253"/>
+      <c r="BH8" s="253"/>
+      <c r="BI8" s="253"/>
+      <c r="BJ8" s="253"/>
+      <c r="BK8" s="253"/>
+      <c r="BL8" s="253"/>
+      <c r="BM8" s="253"/>
+      <c r="BN8" s="253"/>
+      <c r="BO8" s="253"/>
+      <c r="BP8" s="253"/>
+      <c r="BQ8" s="253"/>
+      <c r="BR8" s="253"/>
+      <c r="BS8" s="253"/>
+      <c r="BT8" s="253"/>
+      <c r="BU8" s="253"/>
+      <c r="BV8" s="253"/>
+      <c r="BW8" s="253"/>
+      <c r="BX8" s="253"/>
+      <c r="BY8" s="253"/>
+      <c r="BZ8" s="253"/>
+      <c r="CA8" s="253"/>
+      <c r="CB8" s="253"/>
+      <c r="CC8" s="253"/>
+      <c r="CD8" s="253"/>
+      <c r="CE8" s="253"/>
+      <c r="CF8" s="253"/>
+      <c r="CG8" s="253"/>
+      <c r="CH8" s="253"/>
+      <c r="CI8" s="253"/>
+      <c r="CJ8" s="253"/>
+      <c r="CK8" s="253"/>
+      <c r="CL8" s="253"/>
+      <c r="CM8" s="253"/>
+      <c r="CN8" s="253"/>
+      <c r="CO8" s="253"/>
+      <c r="CP8" s="253"/>
+      <c r="CQ8" s="253"/>
+      <c r="CR8" s="253"/>
+      <c r="CS8" s="253"/>
+      <c r="CT8" s="253"/>
+      <c r="CU8" s="255"/>
       <c r="EK8" s="19" t="s">
         <v>3</v>
       </c>
@@ -7171,16 +7456,16 @@
       </c>
     </row>
     <row r="9" spans="2:150" ht="25.15" customHeight="1">
-      <c r="B9" s="267" t="s">
+      <c r="B9" s="272" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="253" t="s">
+      <c r="C9" s="276" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="253"/>
-      <c r="E9" s="253"/>
-      <c r="F9" s="253"/>
-      <c r="G9" s="254"/>
+      <c r="D9" s="276"/>
+      <c r="E9" s="276"/>
+      <c r="F9" s="276"/>
+      <c r="G9" s="277"/>
       <c r="H9" s="20"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
@@ -7281,14 +7566,14 @@
       </c>
     </row>
     <row r="10" spans="2:150" ht="25.15" customHeight="1">
-      <c r="B10" s="268"/>
-      <c r="C10" s="265" t="s">
+      <c r="B10" s="273"/>
+      <c r="C10" s="259" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="265"/>
-      <c r="E10" s="265"/>
-      <c r="F10" s="265"/>
-      <c r="G10" s="266"/>
+      <c r="D10" s="259"/>
+      <c r="E10" s="259"/>
+      <c r="F10" s="259"/>
+      <c r="G10" s="260"/>
       <c r="H10" s="24"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -7389,14 +7674,14 @@
       </c>
     </row>
     <row r="11" spans="2:150" ht="25.15" customHeight="1">
-      <c r="B11" s="268"/>
-      <c r="C11" s="265" t="s">
+      <c r="B11" s="273"/>
+      <c r="C11" s="259" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="265"/>
-      <c r="E11" s="265"/>
-      <c r="F11" s="265"/>
-      <c r="G11" s="266"/>
+      <c r="D11" s="259"/>
+      <c r="E11" s="259"/>
+      <c r="F11" s="259"/>
+      <c r="G11" s="260"/>
       <c r="H11" s="24"/>
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
@@ -7497,14 +7782,14 @@
       </c>
     </row>
     <row r="12" spans="2:150" ht="25.15" customHeight="1">
-      <c r="B12" s="268"/>
-      <c r="C12" s="273" t="s">
+      <c r="B12" s="273"/>
+      <c r="C12" s="261" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="273"/>
-      <c r="E12" s="273"/>
-      <c r="F12" s="273"/>
-      <c r="G12" s="274"/>
+      <c r="D12" s="261"/>
+      <c r="E12" s="261"/>
+      <c r="F12" s="261"/>
+      <c r="G12" s="262"/>
       <c r="H12" s="27"/>
       <c r="I12" s="28"/>
       <c r="J12" s="28"/>
@@ -7605,16 +7890,16 @@
       </c>
     </row>
     <row r="13" spans="2:150" ht="25.15" customHeight="1">
-      <c r="B13" s="269" t="s">
+      <c r="B13" s="274" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="275" t="s">
+      <c r="C13" s="263" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="275"/>
-      <c r="E13" s="275"/>
-      <c r="F13" s="275"/>
-      <c r="G13" s="276"/>
+      <c r="D13" s="263"/>
+      <c r="E13" s="263"/>
+      <c r="F13" s="263"/>
+      <c r="G13" s="264"/>
       <c r="H13" s="30"/>
       <c r="I13" s="31"/>
       <c r="J13" s="31"/>
@@ -7715,14 +8000,14 @@
       </c>
     </row>
     <row r="14" spans="2:150" ht="25.15" customHeight="1">
-      <c r="B14" s="269"/>
-      <c r="C14" s="265" t="s">
+      <c r="B14" s="274"/>
+      <c r="C14" s="259" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="265"/>
-      <c r="E14" s="265"/>
-      <c r="F14" s="265"/>
-      <c r="G14" s="266"/>
+      <c r="D14" s="259"/>
+      <c r="E14" s="259"/>
+      <c r="F14" s="259"/>
+      <c r="G14" s="260"/>
       <c r="H14" s="33"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -7823,14 +8108,14 @@
       </c>
     </row>
     <row r="15" spans="2:150" ht="25.15" customHeight="1">
-      <c r="B15" s="269"/>
-      <c r="C15" s="265" t="s">
+      <c r="B15" s="274"/>
+      <c r="C15" s="259" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="265"/>
-      <c r="E15" s="265"/>
-      <c r="F15" s="265"/>
-      <c r="G15" s="266"/>
+      <c r="D15" s="259"/>
+      <c r="E15" s="259"/>
+      <c r="F15" s="259"/>
+      <c r="G15" s="260"/>
       <c r="H15" s="33"/>
       <c r="I15" s="34"/>
       <c r="J15" s="34"/>
@@ -7931,14 +8216,14 @@
       </c>
     </row>
     <row r="16" spans="2:150" ht="25.15" customHeight="1">
-      <c r="B16" s="269"/>
-      <c r="C16" s="273" t="s">
+      <c r="B16" s="274"/>
+      <c r="C16" s="261" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="273"/>
-      <c r="E16" s="273"/>
-      <c r="F16" s="273"/>
-      <c r="G16" s="274"/>
+      <c r="D16" s="261"/>
+      <c r="E16" s="261"/>
+      <c r="F16" s="261"/>
+      <c r="G16" s="262"/>
       <c r="H16" s="36"/>
       <c r="I16" s="37"/>
       <c r="J16" s="37"/>
@@ -8039,16 +8324,16 @@
       </c>
     </row>
     <row r="17" spans="2:150" ht="25.15" customHeight="1">
-      <c r="B17" s="270" t="s">
+      <c r="B17" s="256" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="275" t="s">
+      <c r="C17" s="263" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="275"/>
-      <c r="E17" s="275"/>
-      <c r="F17" s="275"/>
-      <c r="G17" s="276"/>
+      <c r="D17" s="263"/>
+      <c r="E17" s="263"/>
+      <c r="F17" s="263"/>
+      <c r="G17" s="264"/>
       <c r="H17" s="39"/>
       <c r="I17" s="40"/>
       <c r="J17" s="40"/>
@@ -8149,14 +8434,14 @@
       </c>
     </row>
     <row r="18" spans="2:150" ht="25.15" customHeight="1">
-      <c r="B18" s="270"/>
-      <c r="C18" s="265" t="s">
+      <c r="B18" s="256"/>
+      <c r="C18" s="259" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="265"/>
-      <c r="E18" s="265"/>
-      <c r="F18" s="265"/>
-      <c r="G18" s="266"/>
+      <c r="D18" s="259"/>
+      <c r="E18" s="259"/>
+      <c r="F18" s="259"/>
+      <c r="G18" s="260"/>
       <c r="H18" s="43"/>
       <c r="I18" s="44"/>
       <c r="J18" s="44"/>
@@ -8257,14 +8542,14 @@
       </c>
     </row>
     <row r="19" spans="2:150" ht="25.15" customHeight="1">
-      <c r="B19" s="270"/>
-      <c r="C19" s="265" t="s">
+      <c r="B19" s="256"/>
+      <c r="C19" s="259" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="265"/>
-      <c r="E19" s="265"/>
-      <c r="F19" s="265"/>
-      <c r="G19" s="266"/>
+      <c r="D19" s="259"/>
+      <c r="E19" s="259"/>
+      <c r="F19" s="259"/>
+      <c r="G19" s="260"/>
       <c r="H19" s="43"/>
       <c r="I19" s="44"/>
       <c r="J19" s="44"/>
@@ -8365,14 +8650,14 @@
       </c>
     </row>
     <row r="20" spans="2:150" ht="25.15" customHeight="1">
-      <c r="B20" s="270"/>
-      <c r="C20" s="273" t="s">
+      <c r="B20" s="256"/>
+      <c r="C20" s="261" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="273"/>
-      <c r="E20" s="273"/>
-      <c r="F20" s="273"/>
-      <c r="G20" s="274"/>
+      <c r="D20" s="261"/>
+      <c r="E20" s="261"/>
+      <c r="F20" s="261"/>
+      <c r="G20" s="262"/>
       <c r="H20" s="47"/>
       <c r="I20" s="48"/>
       <c r="J20" s="48"/>
@@ -8473,16 +8758,16 @@
       </c>
     </row>
     <row r="21" spans="2:150" ht="25.15" customHeight="1">
-      <c r="B21" s="271" t="s">
+      <c r="B21" s="257" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="275" t="s">
+      <c r="C21" s="263" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="275"/>
-      <c r="E21" s="275"/>
-      <c r="F21" s="275"/>
-      <c r="G21" s="276"/>
+      <c r="D21" s="263"/>
+      <c r="E21" s="263"/>
+      <c r="F21" s="263"/>
+      <c r="G21" s="264"/>
       <c r="H21" s="51"/>
       <c r="I21" s="52"/>
       <c r="J21" s="52"/>
@@ -8583,14 +8868,14 @@
       </c>
     </row>
     <row r="22" spans="2:150" ht="25.15" customHeight="1">
-      <c r="B22" s="271"/>
-      <c r="C22" s="265" t="s">
+      <c r="B22" s="257"/>
+      <c r="C22" s="259" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="265"/>
-      <c r="E22" s="265"/>
-      <c r="F22" s="265"/>
-      <c r="G22" s="266"/>
+      <c r="D22" s="259"/>
+      <c r="E22" s="259"/>
+      <c r="F22" s="259"/>
+      <c r="G22" s="260"/>
       <c r="H22" s="55"/>
       <c r="I22" s="56"/>
       <c r="J22" s="56"/>
@@ -8691,14 +8976,14 @@
       </c>
     </row>
     <row r="23" spans="2:150" ht="25.15" customHeight="1">
-      <c r="B23" s="271"/>
-      <c r="C23" s="265" t="s">
+      <c r="B23" s="257"/>
+      <c r="C23" s="259" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="265"/>
-      <c r="E23" s="265"/>
-      <c r="F23" s="265"/>
-      <c r="G23" s="266"/>
+      <c r="D23" s="259"/>
+      <c r="E23" s="259"/>
+      <c r="F23" s="259"/>
+      <c r="G23" s="260"/>
       <c r="H23" s="55"/>
       <c r="I23" s="56"/>
       <c r="J23" s="56"/>
@@ -8799,14 +9084,14 @@
       </c>
     </row>
     <row r="24" spans="2:150" ht="25.15" customHeight="1" thickBot="1">
-      <c r="B24" s="272"/>
-      <c r="C24" s="277" t="s">
+      <c r="B24" s="258"/>
+      <c r="C24" s="265" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="277"/>
-      <c r="E24" s="277"/>
-      <c r="F24" s="277"/>
-      <c r="G24" s="278"/>
+      <c r="D24" s="265"/>
+      <c r="E24" s="265"/>
+      <c r="F24" s="265"/>
+      <c r="G24" s="266"/>
       <c r="H24" s="58"/>
       <c r="I24" s="59"/>
       <c r="J24" s="59"/>
@@ -9274,62 +9559,46 @@
   </sheetData>
   <sheetProtection sheet="1" scenarios="1"/>
   <mergeCells count="120">
-    <mergeCell ref="CF7:CF8"/>
-    <mergeCell ref="CG7:CG8"/>
-    <mergeCell ref="CH7:CH8"/>
-    <mergeCell ref="CI7:CI8"/>
-    <mergeCell ref="CJ7:CJ8"/>
-    <mergeCell ref="CA7:CA8"/>
-    <mergeCell ref="CB7:CB8"/>
-    <mergeCell ref="CC7:CC8"/>
-    <mergeCell ref="CD7:CD8"/>
-    <mergeCell ref="CE7:CE8"/>
-    <mergeCell ref="CU7:CU8"/>
-    <mergeCell ref="CP7:CP8"/>
-    <mergeCell ref="CQ7:CQ8"/>
-    <mergeCell ref="CR7:CR8"/>
-    <mergeCell ref="CS7:CS8"/>
-    <mergeCell ref="CT7:CT8"/>
-    <mergeCell ref="CK7:CK8"/>
-    <mergeCell ref="CL7:CL8"/>
-    <mergeCell ref="CM7:CM8"/>
-    <mergeCell ref="CN7:CN8"/>
-    <mergeCell ref="CO7:CO8"/>
-    <mergeCell ref="BX7:BX8"/>
-    <mergeCell ref="BY7:BY8"/>
-    <mergeCell ref="BZ7:BZ8"/>
-    <mergeCell ref="BQ7:BQ8"/>
-    <mergeCell ref="BR7:BR8"/>
-    <mergeCell ref="BS7:BS8"/>
-    <mergeCell ref="BT7:BT8"/>
-    <mergeCell ref="BU7:BU8"/>
-    <mergeCell ref="BL7:BL8"/>
-    <mergeCell ref="BM7:BM8"/>
-    <mergeCell ref="BN7:BN8"/>
-    <mergeCell ref="BO7:BO8"/>
-    <mergeCell ref="BP7:BP8"/>
-    <mergeCell ref="BV7:BV8"/>
-    <mergeCell ref="BW7:BW8"/>
-    <mergeCell ref="BG7:BG8"/>
-    <mergeCell ref="BH7:BH8"/>
-    <mergeCell ref="BI7:BI8"/>
-    <mergeCell ref="BJ7:BJ8"/>
-    <mergeCell ref="BK7:BK8"/>
-    <mergeCell ref="BB7:BB8"/>
-    <mergeCell ref="BC7:BC8"/>
-    <mergeCell ref="BD7:BD8"/>
-    <mergeCell ref="BE7:BE8"/>
-    <mergeCell ref="BF7:BF8"/>
-    <mergeCell ref="AW7:AW8"/>
-    <mergeCell ref="AX7:AX8"/>
-    <mergeCell ref="AY7:AY8"/>
-    <mergeCell ref="AZ7:AZ8"/>
-    <mergeCell ref="BA7:BA8"/>
-    <mergeCell ref="AR7:AR8"/>
-    <mergeCell ref="AS7:AS8"/>
-    <mergeCell ref="AT7:AT8"/>
-    <mergeCell ref="AU7:AU8"/>
-    <mergeCell ref="AV7:AV8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="AL7:AL8"/>
+    <mergeCell ref="AK7:AK8"/>
+    <mergeCell ref="AJ7:AJ8"/>
+    <mergeCell ref="AI7:AI8"/>
+    <mergeCell ref="AH7:AH8"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="N7:N8"/>
     <mergeCell ref="AM7:AM8"/>
     <mergeCell ref="AN7:AN8"/>
     <mergeCell ref="AO7:AO8"/>
@@ -9354,46 +9623,62 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="AL7:AL8"/>
-    <mergeCell ref="AK7:AK8"/>
-    <mergeCell ref="AJ7:AJ8"/>
-    <mergeCell ref="AI7:AI8"/>
-    <mergeCell ref="AH7:AH8"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="AW7:AW8"/>
+    <mergeCell ref="AX7:AX8"/>
+    <mergeCell ref="AY7:AY8"/>
+    <mergeCell ref="AZ7:AZ8"/>
+    <mergeCell ref="BA7:BA8"/>
+    <mergeCell ref="AR7:AR8"/>
+    <mergeCell ref="AS7:AS8"/>
+    <mergeCell ref="AT7:AT8"/>
+    <mergeCell ref="AU7:AU8"/>
+    <mergeCell ref="AV7:AV8"/>
+    <mergeCell ref="BG7:BG8"/>
+    <mergeCell ref="BH7:BH8"/>
+    <mergeCell ref="BI7:BI8"/>
+    <mergeCell ref="BJ7:BJ8"/>
+    <mergeCell ref="BK7:BK8"/>
+    <mergeCell ref="BB7:BB8"/>
+    <mergeCell ref="BC7:BC8"/>
+    <mergeCell ref="BD7:BD8"/>
+    <mergeCell ref="BE7:BE8"/>
+    <mergeCell ref="BF7:BF8"/>
+    <mergeCell ref="BX7:BX8"/>
+    <mergeCell ref="BY7:BY8"/>
+    <mergeCell ref="BZ7:BZ8"/>
+    <mergeCell ref="BQ7:BQ8"/>
+    <mergeCell ref="BR7:BR8"/>
+    <mergeCell ref="BS7:BS8"/>
+    <mergeCell ref="BT7:BT8"/>
+    <mergeCell ref="BU7:BU8"/>
+    <mergeCell ref="BL7:BL8"/>
+    <mergeCell ref="BM7:BM8"/>
+    <mergeCell ref="BN7:BN8"/>
+    <mergeCell ref="BO7:BO8"/>
+    <mergeCell ref="BP7:BP8"/>
+    <mergeCell ref="BV7:BV8"/>
+    <mergeCell ref="BW7:BW8"/>
+    <mergeCell ref="CU7:CU8"/>
+    <mergeCell ref="CP7:CP8"/>
+    <mergeCell ref="CQ7:CQ8"/>
+    <mergeCell ref="CR7:CR8"/>
+    <mergeCell ref="CS7:CS8"/>
+    <mergeCell ref="CT7:CT8"/>
+    <mergeCell ref="CK7:CK8"/>
+    <mergeCell ref="CL7:CL8"/>
+    <mergeCell ref="CM7:CM8"/>
+    <mergeCell ref="CN7:CN8"/>
+    <mergeCell ref="CO7:CO8"/>
+    <mergeCell ref="CF7:CF8"/>
+    <mergeCell ref="CG7:CG8"/>
+    <mergeCell ref="CH7:CH8"/>
+    <mergeCell ref="CI7:CI8"/>
+    <mergeCell ref="CJ7:CJ8"/>
+    <mergeCell ref="CA7:CA8"/>
+    <mergeCell ref="CB7:CB8"/>
+    <mergeCell ref="CC7:CC8"/>
+    <mergeCell ref="CD7:CD8"/>
+    <mergeCell ref="CE7:CE8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H7:CU7">
@@ -9413,7 +9698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BX20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -9433,10 +9718,10 @@
       <c r="B2" s="76">
         <v>42470</v>
       </c>
-      <c r="C2" s="300" t="s">
+      <c r="C2" s="289" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="300"/>
+      <c r="D2" s="289"/>
       <c r="E2" s="77"/>
       <c r="F2" s="78"/>
       <c r="U2" s="79"/>
@@ -9448,102 +9733,102 @@
       <c r="D4" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="307">
+      <c r="E4" s="296">
         <v>0.375</v>
       </c>
-      <c r="F4" s="308"/>
-      <c r="G4" s="308"/>
-      <c r="H4" s="308"/>
-      <c r="I4" s="308"/>
-      <c r="J4" s="309"/>
-      <c r="K4" s="307">
+      <c r="F4" s="297"/>
+      <c r="G4" s="297"/>
+      <c r="H4" s="297"/>
+      <c r="I4" s="297"/>
+      <c r="J4" s="298"/>
+      <c r="K4" s="296">
         <v>0.41666666666666669</v>
       </c>
-      <c r="L4" s="308"/>
-      <c r="M4" s="308"/>
-      <c r="N4" s="308"/>
-      <c r="O4" s="308"/>
-      <c r="P4" s="309"/>
-      <c r="Q4" s="307">
+      <c r="L4" s="297"/>
+      <c r="M4" s="297"/>
+      <c r="N4" s="297"/>
+      <c r="O4" s="297"/>
+      <c r="P4" s="298"/>
+      <c r="Q4" s="296">
         <v>0.45833333333333331</v>
       </c>
-      <c r="R4" s="308"/>
-      <c r="S4" s="308"/>
-      <c r="T4" s="308"/>
-      <c r="U4" s="308"/>
-      <c r="V4" s="309"/>
-      <c r="W4" s="307">
+      <c r="R4" s="297"/>
+      <c r="S4" s="297"/>
+      <c r="T4" s="297"/>
+      <c r="U4" s="297"/>
+      <c r="V4" s="298"/>
+      <c r="W4" s="296">
         <v>0.5</v>
       </c>
-      <c r="X4" s="308"/>
-      <c r="Y4" s="308"/>
-      <c r="Z4" s="308"/>
-      <c r="AA4" s="308"/>
-      <c r="AB4" s="309"/>
-      <c r="AC4" s="307">
+      <c r="X4" s="297"/>
+      <c r="Y4" s="297"/>
+      <c r="Z4" s="297"/>
+      <c r="AA4" s="297"/>
+      <c r="AB4" s="298"/>
+      <c r="AC4" s="296">
         <v>0.54166666666666663</v>
       </c>
-      <c r="AD4" s="308"/>
-      <c r="AE4" s="308"/>
-      <c r="AF4" s="308"/>
-      <c r="AG4" s="308"/>
-      <c r="AH4" s="309"/>
-      <c r="AI4" s="307">
+      <c r="AD4" s="297"/>
+      <c r="AE4" s="297"/>
+      <c r="AF4" s="297"/>
+      <c r="AG4" s="297"/>
+      <c r="AH4" s="298"/>
+      <c r="AI4" s="296">
         <v>0.58333333333333337</v>
       </c>
-      <c r="AJ4" s="308"/>
-      <c r="AK4" s="308"/>
-      <c r="AL4" s="308"/>
-      <c r="AM4" s="308"/>
-      <c r="AN4" s="309"/>
-      <c r="AO4" s="308">
+      <c r="AJ4" s="297"/>
+      <c r="AK4" s="297"/>
+      <c r="AL4" s="297"/>
+      <c r="AM4" s="297"/>
+      <c r="AN4" s="298"/>
+      <c r="AO4" s="297">
         <v>0.625</v>
       </c>
-      <c r="AP4" s="308"/>
-      <c r="AQ4" s="308"/>
-      <c r="AR4" s="308"/>
-      <c r="AS4" s="308"/>
-      <c r="AT4" s="309"/>
-      <c r="AU4" s="307">
+      <c r="AP4" s="297"/>
+      <c r="AQ4" s="297"/>
+      <c r="AR4" s="297"/>
+      <c r="AS4" s="297"/>
+      <c r="AT4" s="298"/>
+      <c r="AU4" s="296">
         <v>0.66666666666666663</v>
       </c>
-      <c r="AV4" s="308"/>
-      <c r="AW4" s="308"/>
-      <c r="AX4" s="308"/>
-      <c r="AY4" s="308"/>
-      <c r="AZ4" s="309"/>
-      <c r="BA4" s="307">
+      <c r="AV4" s="297"/>
+      <c r="AW4" s="297"/>
+      <c r="AX4" s="297"/>
+      <c r="AY4" s="297"/>
+      <c r="AZ4" s="298"/>
+      <c r="BA4" s="296">
         <v>0.70833333333333337</v>
       </c>
-      <c r="BB4" s="308"/>
-      <c r="BC4" s="308"/>
-      <c r="BD4" s="308"/>
-      <c r="BE4" s="308"/>
-      <c r="BF4" s="309"/>
-      <c r="BG4" s="307">
+      <c r="BB4" s="297"/>
+      <c r="BC4" s="297"/>
+      <c r="BD4" s="297"/>
+      <c r="BE4" s="297"/>
+      <c r="BF4" s="298"/>
+      <c r="BG4" s="296">
         <v>0.75</v>
       </c>
-      <c r="BH4" s="308"/>
-      <c r="BI4" s="308"/>
-      <c r="BJ4" s="308"/>
-      <c r="BK4" s="308"/>
-      <c r="BL4" s="309"/>
-      <c r="BM4" s="301">
+      <c r="BH4" s="297"/>
+      <c r="BI4" s="297"/>
+      <c r="BJ4" s="297"/>
+      <c r="BK4" s="297"/>
+      <c r="BL4" s="298"/>
+      <c r="BM4" s="290">
         <v>0.79166666666666663</v>
       </c>
-      <c r="BN4" s="302"/>
-      <c r="BO4" s="302"/>
-      <c r="BP4" s="302"/>
-      <c r="BQ4" s="302"/>
-      <c r="BR4" s="303"/>
-      <c r="BS4" s="301">
+      <c r="BN4" s="291"/>
+      <c r="BO4" s="291"/>
+      <c r="BP4" s="291"/>
+      <c r="BQ4" s="291"/>
+      <c r="BR4" s="292"/>
+      <c r="BS4" s="290">
         <v>0.83333333333333337</v>
       </c>
-      <c r="BT4" s="302"/>
-      <c r="BU4" s="302"/>
-      <c r="BV4" s="302"/>
-      <c r="BW4" s="302"/>
-      <c r="BX4" s="303"/>
+      <c r="BT4" s="291"/>
+      <c r="BU4" s="291"/>
+      <c r="BV4" s="291"/>
+      <c r="BW4" s="291"/>
+      <c r="BX4" s="292"/>
     </row>
     <row r="5" spans="2:76" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="B5" s="83" t="s">
@@ -9551,83 +9836,83 @@
       </c>
       <c r="C5" s="84"/>
       <c r="D5" s="85"/>
-      <c r="E5" s="310"/>
-      <c r="F5" s="311"/>
-      <c r="G5" s="311"/>
-      <c r="H5" s="311"/>
-      <c r="I5" s="311"/>
-      <c r="J5" s="312"/>
-      <c r="K5" s="310"/>
-      <c r="L5" s="311"/>
-      <c r="M5" s="311"/>
-      <c r="N5" s="311"/>
-      <c r="O5" s="311"/>
-      <c r="P5" s="312"/>
-      <c r="Q5" s="310"/>
-      <c r="R5" s="311"/>
-      <c r="S5" s="311"/>
-      <c r="T5" s="311"/>
-      <c r="U5" s="311"/>
-      <c r="V5" s="312"/>
-      <c r="W5" s="310"/>
-      <c r="X5" s="311"/>
-      <c r="Y5" s="311"/>
-      <c r="Z5" s="311"/>
-      <c r="AA5" s="311"/>
-      <c r="AB5" s="312"/>
-      <c r="AC5" s="310"/>
-      <c r="AD5" s="311"/>
-      <c r="AE5" s="311"/>
-      <c r="AF5" s="311"/>
-      <c r="AG5" s="311"/>
-      <c r="AH5" s="312"/>
-      <c r="AI5" s="310"/>
-      <c r="AJ5" s="311"/>
-      <c r="AK5" s="311"/>
-      <c r="AL5" s="311"/>
-      <c r="AM5" s="311"/>
-      <c r="AN5" s="312"/>
-      <c r="AO5" s="311"/>
-      <c r="AP5" s="311"/>
-      <c r="AQ5" s="311"/>
-      <c r="AR5" s="311"/>
-      <c r="AS5" s="311"/>
-      <c r="AT5" s="312"/>
-      <c r="AU5" s="310"/>
-      <c r="AV5" s="311"/>
-      <c r="AW5" s="311"/>
-      <c r="AX5" s="311"/>
-      <c r="AY5" s="311"/>
-      <c r="AZ5" s="312"/>
-      <c r="BA5" s="310"/>
-      <c r="BB5" s="311"/>
-      <c r="BC5" s="311"/>
-      <c r="BD5" s="311"/>
-      <c r="BE5" s="311"/>
-      <c r="BF5" s="312"/>
-      <c r="BG5" s="310"/>
-      <c r="BH5" s="311"/>
-      <c r="BI5" s="311"/>
-      <c r="BJ5" s="311"/>
-      <c r="BK5" s="311"/>
-      <c r="BL5" s="312"/>
-      <c r="BM5" s="304"/>
-      <c r="BN5" s="305"/>
-      <c r="BO5" s="305"/>
-      <c r="BP5" s="305"/>
-      <c r="BQ5" s="305"/>
-      <c r="BR5" s="306"/>
-      <c r="BS5" s="304"/>
-      <c r="BT5" s="305"/>
-      <c r="BU5" s="305"/>
-      <c r="BV5" s="305"/>
-      <c r="BW5" s="305"/>
-      <c r="BX5" s="306"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="300"/>
+      <c r="G5" s="300"/>
+      <c r="H5" s="300"/>
+      <c r="I5" s="300"/>
+      <c r="J5" s="301"/>
+      <c r="K5" s="299"/>
+      <c r="L5" s="300"/>
+      <c r="M5" s="300"/>
+      <c r="N5" s="300"/>
+      <c r="O5" s="300"/>
+      <c r="P5" s="301"/>
+      <c r="Q5" s="299"/>
+      <c r="R5" s="300"/>
+      <c r="S5" s="300"/>
+      <c r="T5" s="300"/>
+      <c r="U5" s="300"/>
+      <c r="V5" s="301"/>
+      <c r="W5" s="299"/>
+      <c r="X5" s="300"/>
+      <c r="Y5" s="300"/>
+      <c r="Z5" s="300"/>
+      <c r="AA5" s="300"/>
+      <c r="AB5" s="301"/>
+      <c r="AC5" s="299"/>
+      <c r="AD5" s="300"/>
+      <c r="AE5" s="300"/>
+      <c r="AF5" s="300"/>
+      <c r="AG5" s="300"/>
+      <c r="AH5" s="301"/>
+      <c r="AI5" s="299"/>
+      <c r="AJ5" s="300"/>
+      <c r="AK5" s="300"/>
+      <c r="AL5" s="300"/>
+      <c r="AM5" s="300"/>
+      <c r="AN5" s="301"/>
+      <c r="AO5" s="300"/>
+      <c r="AP5" s="300"/>
+      <c r="AQ5" s="300"/>
+      <c r="AR5" s="300"/>
+      <c r="AS5" s="300"/>
+      <c r="AT5" s="301"/>
+      <c r="AU5" s="299"/>
+      <c r="AV5" s="300"/>
+      <c r="AW5" s="300"/>
+      <c r="AX5" s="300"/>
+      <c r="AY5" s="300"/>
+      <c r="AZ5" s="301"/>
+      <c r="BA5" s="299"/>
+      <c r="BB5" s="300"/>
+      <c r="BC5" s="300"/>
+      <c r="BD5" s="300"/>
+      <c r="BE5" s="300"/>
+      <c r="BF5" s="301"/>
+      <c r="BG5" s="299"/>
+      <c r="BH5" s="300"/>
+      <c r="BI5" s="300"/>
+      <c r="BJ5" s="300"/>
+      <c r="BK5" s="300"/>
+      <c r="BL5" s="301"/>
+      <c r="BM5" s="293"/>
+      <c r="BN5" s="294"/>
+      <c r="BO5" s="294"/>
+      <c r="BP5" s="294"/>
+      <c r="BQ5" s="294"/>
+      <c r="BR5" s="295"/>
+      <c r="BS5" s="293"/>
+      <c r="BT5" s="294"/>
+      <c r="BU5" s="294"/>
+      <c r="BV5" s="294"/>
+      <c r="BW5" s="294"/>
+      <c r="BX5" s="295"/>
     </row>
     <row r="6" spans="2:76" ht="25.15" customHeight="1">
-      <c r="B6" s="297"/>
-      <c r="C6" s="298"/>
-      <c r="D6" s="299"/>
+      <c r="B6" s="286"/>
+      <c r="C6" s="287"/>
+      <c r="D6" s="288"/>
       <c r="E6" s="162"/>
       <c r="F6" s="163"/>
       <c r="G6" s="163"/>
@@ -9702,9 +9987,9 @@
       <c r="BX6" s="92"/>
     </row>
     <row r="7" spans="2:76" ht="25.15" customHeight="1">
-      <c r="B7" s="289"/>
-      <c r="C7" s="290"/>
-      <c r="D7" s="291"/>
+      <c r="B7" s="305"/>
+      <c r="C7" s="306"/>
+      <c r="D7" s="307"/>
       <c r="E7" s="165"/>
       <c r="F7" s="166"/>
       <c r="G7" s="166"/>
@@ -9779,9 +10064,9 @@
       <c r="BX7" s="99"/>
     </row>
     <row r="8" spans="2:76" ht="25.15" customHeight="1">
-      <c r="B8" s="294"/>
-      <c r="C8" s="295"/>
-      <c r="D8" s="296"/>
+      <c r="B8" s="310"/>
+      <c r="C8" s="311"/>
+      <c r="D8" s="312"/>
       <c r="E8" s="165"/>
       <c r="F8" s="166"/>
       <c r="G8" s="166"/>
@@ -9856,9 +10141,9 @@
       <c r="BX8" s="99"/>
     </row>
     <row r="9" spans="2:76" ht="25.15" customHeight="1">
-      <c r="B9" s="292"/>
-      <c r="C9" s="290"/>
-      <c r="D9" s="293"/>
+      <c r="B9" s="308"/>
+      <c r="C9" s="306"/>
+      <c r="D9" s="309"/>
       <c r="E9" s="165"/>
       <c r="F9" s="166"/>
       <c r="G9" s="166"/>
@@ -9933,9 +10218,9 @@
       <c r="BX9" s="99"/>
     </row>
     <row r="10" spans="2:76" ht="25.15" customHeight="1">
-      <c r="B10" s="294"/>
-      <c r="C10" s="295"/>
-      <c r="D10" s="296"/>
+      <c r="B10" s="310"/>
+      <c r="C10" s="311"/>
+      <c r="D10" s="312"/>
       <c r="E10" s="165"/>
       <c r="F10" s="166"/>
       <c r="G10" s="166"/>
@@ -10010,9 +10295,9 @@
       <c r="BX10" s="99"/>
     </row>
     <row r="11" spans="2:76" ht="25.15" customHeight="1">
-      <c r="B11" s="289"/>
-      <c r="C11" s="290"/>
-      <c r="D11" s="291"/>
+      <c r="B11" s="305"/>
+      <c r="C11" s="306"/>
+      <c r="D11" s="307"/>
       <c r="E11" s="168"/>
       <c r="F11" s="169"/>
       <c r="G11" s="169"/>
@@ -10087,9 +10372,9 @@
       <c r="BX11" s="106"/>
     </row>
     <row r="12" spans="2:76" ht="25.15" customHeight="1">
-      <c r="B12" s="294"/>
-      <c r="C12" s="295"/>
-      <c r="D12" s="296"/>
+      <c r="B12" s="310"/>
+      <c r="C12" s="311"/>
+      <c r="D12" s="312"/>
       <c r="E12" s="93"/>
       <c r="F12" s="94"/>
       <c r="G12" s="94"/>
@@ -10164,9 +10449,9 @@
       <c r="BX12" s="99"/>
     </row>
     <row r="13" spans="2:76" ht="25.15" customHeight="1">
-      <c r="B13" s="289"/>
-      <c r="C13" s="290"/>
-      <c r="D13" s="291"/>
+      <c r="B13" s="305"/>
+      <c r="C13" s="306"/>
+      <c r="D13" s="307"/>
       <c r="E13" s="93"/>
       <c r="F13" s="94"/>
       <c r="G13" s="94"/>
@@ -10241,9 +10526,9 @@
       <c r="BX13" s="99"/>
     </row>
     <row r="14" spans="2:76" ht="25.15" customHeight="1">
-      <c r="B14" s="294"/>
-      <c r="C14" s="295"/>
-      <c r="D14" s="296"/>
+      <c r="B14" s="310"/>
+      <c r="C14" s="311"/>
+      <c r="D14" s="312"/>
       <c r="E14" s="93"/>
       <c r="F14" s="94"/>
       <c r="G14" s="94"/>
@@ -10318,9 +10603,9 @@
       <c r="BX14" s="99"/>
     </row>
     <row r="15" spans="2:76" ht="25.15" customHeight="1">
-      <c r="B15" s="289"/>
-      <c r="C15" s="290"/>
-      <c r="D15" s="291"/>
+      <c r="B15" s="305"/>
+      <c r="C15" s="306"/>
+      <c r="D15" s="307"/>
       <c r="E15" s="93"/>
       <c r="F15" s="94"/>
       <c r="G15" s="94"/>
@@ -10395,9 +10680,9 @@
       <c r="BX15" s="99"/>
     </row>
     <row r="16" spans="2:76" ht="25.15" customHeight="1">
-      <c r="B16" s="294"/>
-      <c r="C16" s="295"/>
-      <c r="D16" s="296"/>
+      <c r="B16" s="310"/>
+      <c r="C16" s="311"/>
+      <c r="D16" s="312"/>
       <c r="E16" s="93"/>
       <c r="F16" s="94"/>
       <c r="G16" s="94"/>
@@ -10472,9 +10757,9 @@
       <c r="BX16" s="99"/>
     </row>
     <row r="17" spans="2:76" ht="25.15" customHeight="1">
-      <c r="B17" s="289"/>
-      <c r="C17" s="290"/>
-      <c r="D17" s="291"/>
+      <c r="B17" s="305"/>
+      <c r="C17" s="306"/>
+      <c r="D17" s="307"/>
       <c r="E17" s="100"/>
       <c r="F17" s="101"/>
       <c r="G17" s="101"/>
@@ -10549,9 +10834,9 @@
       <c r="BX17" s="106"/>
     </row>
     <row r="18" spans="2:76" ht="25.15" customHeight="1">
-      <c r="B18" s="294"/>
-      <c r="C18" s="295"/>
-      <c r="D18" s="296"/>
+      <c r="B18" s="310"/>
+      <c r="C18" s="311"/>
+      <c r="D18" s="312"/>
       <c r="E18" s="93"/>
       <c r="F18" s="94"/>
       <c r="G18" s="94"/>
@@ -10626,9 +10911,9 @@
       <c r="BX18" s="99"/>
     </row>
     <row r="19" spans="2:76" ht="25.15" customHeight="1">
-      <c r="B19" s="289"/>
-      <c r="C19" s="290"/>
-      <c r="D19" s="291"/>
+      <c r="B19" s="305"/>
+      <c r="C19" s="306"/>
+      <c r="D19" s="307"/>
       <c r="E19" s="93"/>
       <c r="F19" s="94"/>
       <c r="G19" s="94"/>
@@ -10703,9 +10988,9 @@
       <c r="BX19" s="99"/>
     </row>
     <row r="20" spans="2:76" ht="25.15" customHeight="1" thickBot="1">
-      <c r="B20" s="286"/>
-      <c r="C20" s="287"/>
-      <c r="D20" s="288"/>
+      <c r="B20" s="302"/>
+      <c r="C20" s="303"/>
+      <c r="D20" s="304"/>
       <c r="E20" s="107"/>
       <c r="F20" s="108"/>
       <c r="G20" s="108"/>
@@ -10781,6 +11066,20 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="BM4:BR5"/>
@@ -10795,20 +11094,6 @@
     <mergeCell ref="Q4:V5"/>
     <mergeCell ref="W4:AB5"/>
     <mergeCell ref="AC4:AH5"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
